--- a/learning_results_after_normalization/AdaBoost_results.xlsx
+++ b/learning_results_after_normalization/AdaBoost_results.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\PredectingPLMatchesResult\learning_results_after_normalization\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF78879-2878-4B66-A5FA-A8B0D795410C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
     <t>n_estimators</t>
   </si>
@@ -25,12 +31,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -38,7 +44,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -89,7 +95,1209 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>AdaBoost Accuracy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="he-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>290</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>0.60727272727272741</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59727272727272729</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59545454545454535</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.59181818181818191</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.58818181818181814</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.58818181818181825</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.59090909090909094</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.58454545454545459</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.57818181818181824</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.57727272727272727</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.57636363636363641</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.57090909090909103</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.55999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.5636363636363636</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.56454545454545457</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.56181818181818177</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.56272727272727274</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.55545454545454542</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.55636363636363639</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.55727272727272736</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.55454545454545456</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.55272727272727273</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.55363636363636359</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.55818181818181811</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.54909090909090907</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.55636363636363639</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F36E-4C91-AFEC-3EF4D7DDBC3E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="514963768"/>
+        <c:axId val="514964728"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="514963768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>n_estimators</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="he-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="he-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="514964728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="514964728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="he-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="he-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="514963768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="he-IL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67B3C472-990E-414C-A6A2-FB2AFC309604}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -135,7 +1343,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -167,9 +1375,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -201,6 +1427,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -376,22 +1620,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -399,10 +1651,16 @@
         <v>30</v>
       </c>
       <c r="C2">
-        <v>0.6072727272727274</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.60727272727272741</v>
+      </c>
+      <c r="E2">
+        <v>30</v>
+      </c>
+      <c r="F2">
+        <v>0.60727272727272741</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -410,10 +1668,16 @@
         <v>40</v>
       </c>
       <c r="C3">
-        <v>0.5972727272727273</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>0.59727272727272729</v>
+      </c>
+      <c r="E3">
+        <v>40</v>
+      </c>
+      <c r="F3">
+        <v>0.59727272727272729</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -421,10 +1685,16 @@
         <v>50</v>
       </c>
       <c r="C4">
-        <v>0.5954545454545453</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.59545454545454535</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+      <c r="F4">
+        <v>0.59545454545454535</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -432,10 +1702,16 @@
         <v>70</v>
       </c>
       <c r="C5">
-        <v>0.5918181818181819</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>0.59181818181818191</v>
+      </c>
+      <c r="E5">
+        <v>60</v>
+      </c>
+      <c r="F5">
+        <v>0.59000000000000008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>7</v>
       </c>
@@ -443,10 +1719,16 @@
         <v>100</v>
       </c>
       <c r="C6">
-        <v>0.5909090909090909</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.59090909090909094</v>
+      </c>
+      <c r="E6">
+        <v>70</v>
+      </c>
+      <c r="F6">
+        <v>0.59181818181818191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -454,10 +1736,16 @@
         <v>60</v>
       </c>
       <c r="C7">
-        <v>0.5900000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.59000000000000008</v>
+      </c>
+      <c r="E7">
+        <v>80</v>
+      </c>
+      <c r="F7">
+        <v>0.58818181818181814</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -465,10 +1753,16 @@
         <v>90</v>
       </c>
       <c r="C8">
-        <v>0.5881818181818183</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.58818181818181825</v>
+      </c>
+      <c r="E8">
+        <v>90</v>
+      </c>
+      <c r="F8">
+        <v>0.58818181818181825</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -476,10 +1770,16 @@
         <v>80</v>
       </c>
       <c r="C9">
-        <v>0.5881818181818181</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.58818181818181814</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9">
+        <v>0.59090909090909094</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -487,10 +1787,16 @@
         <v>110</v>
       </c>
       <c r="C10">
-        <v>0.5845454545454546</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.58454545454545459</v>
+      </c>
+      <c r="E10">
+        <v>110</v>
+      </c>
+      <c r="F10">
+        <v>0.58454545454545459</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -498,10 +1804,16 @@
         <v>120</v>
       </c>
       <c r="C11">
-        <v>0.5781818181818182</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.57818181818181824</v>
+      </c>
+      <c r="E11">
+        <v>120</v>
+      </c>
+      <c r="F11">
+        <v>0.57818181818181824</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -509,10 +1821,16 @@
         <v>130</v>
       </c>
       <c r="C12">
-        <v>0.5772727272727273</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.57727272727272727</v>
+      </c>
+      <c r="E12">
+        <v>130</v>
+      </c>
+      <c r="F12">
+        <v>0.57727272727272727</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -520,10 +1838,16 @@
         <v>140</v>
       </c>
       <c r="C13">
-        <v>0.5763636363636364</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.57636363636363641</v>
+      </c>
+      <c r="E13">
+        <v>140</v>
+      </c>
+      <c r="F13">
+        <v>0.57636363636363641</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -531,10 +1855,16 @@
         <v>150</v>
       </c>
       <c r="C14">
-        <v>0.570909090909091</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.57090909090909103</v>
+      </c>
+      <c r="E14">
+        <v>150</v>
+      </c>
+      <c r="F14">
+        <v>0.57090909090909103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -542,10 +1872,16 @@
         <v>180</v>
       </c>
       <c r="C15">
-        <v>0.5645454545454546</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.56454545454545457</v>
+      </c>
+      <c r="E15">
+        <v>160</v>
+      </c>
+      <c r="F15">
+        <v>0.55999999999999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -555,8 +1891,14 @@
       <c r="C16">
         <v>0.5636363636363636</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="E16">
+        <v>170</v>
+      </c>
+      <c r="F16">
+        <v>0.5636363636363636</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -564,10 +1906,16 @@
         <v>200</v>
       </c>
       <c r="C17">
-        <v>0.5627272727272727</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>0.56272727272727274</v>
+      </c>
+      <c r="E17">
+        <v>180</v>
+      </c>
+      <c r="F17">
+        <v>0.56454545454545457</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -575,10 +1923,16 @@
         <v>190</v>
       </c>
       <c r="C18">
-        <v>0.5618181818181818</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>0.56181818181818177</v>
+      </c>
+      <c r="E18">
+        <v>190</v>
+      </c>
+      <c r="F18">
+        <v>0.56181818181818177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>13</v>
       </c>
@@ -586,10 +1940,16 @@
         <v>160</v>
       </c>
       <c r="C19">
-        <v>0.5599999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="E19">
+        <v>200</v>
+      </c>
+      <c r="F19">
+        <v>0.56272727272727274</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>24</v>
       </c>
@@ -597,10 +1957,16 @@
         <v>270</v>
       </c>
       <c r="C20">
-        <v>0.5581818181818181</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.55818181818181811</v>
+      </c>
+      <c r="E20">
+        <v>210</v>
+      </c>
+      <c r="F20">
+        <v>0.55545454545454542</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -608,10 +1974,16 @@
         <v>230</v>
       </c>
       <c r="C21">
-        <v>0.5572727272727274</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.55727272727272736</v>
+      </c>
+      <c r="E21">
+        <v>220</v>
+      </c>
+      <c r="F21">
+        <v>0.55636363636363639</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -619,10 +1991,16 @@
         <v>220</v>
       </c>
       <c r="C22">
-        <v>0.5563636363636364</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.55636363636363639</v>
+      </c>
+      <c r="E22">
+        <v>230</v>
+      </c>
+      <c r="F22">
+        <v>0.55727272727272736</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>26</v>
       </c>
@@ -630,10 +2008,16 @@
         <v>290</v>
       </c>
       <c r="C23">
-        <v>0.5563636363636364</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.55636363636363639</v>
+      </c>
+      <c r="E23">
+        <v>240</v>
+      </c>
+      <c r="F23">
+        <v>0.55454545454545456</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>18</v>
       </c>
@@ -641,10 +2025,16 @@
         <v>210</v>
       </c>
       <c r="C24">
-        <v>0.5554545454545454</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.55545454545454542</v>
+      </c>
+      <c r="E24">
+        <v>250</v>
+      </c>
+      <c r="F24">
+        <v>0.55272727272727273</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -652,10 +2042,16 @@
         <v>240</v>
       </c>
       <c r="C25">
-        <v>0.5545454545454546</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.55454545454545456</v>
+      </c>
+      <c r="E25">
+        <v>260</v>
+      </c>
+      <c r="F25">
+        <v>0.55363636363636359</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -663,10 +2059,16 @@
         <v>260</v>
       </c>
       <c r="C26">
-        <v>0.5536363636363636</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.55363636363636359</v>
+      </c>
+      <c r="E26">
+        <v>270</v>
+      </c>
+      <c r="F26">
+        <v>0.55818181818181811</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>22</v>
       </c>
@@ -674,10 +2076,16 @@
         <v>250</v>
       </c>
       <c r="C27">
-        <v>0.5527272727272727</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>0.55272727272727273</v>
+      </c>
+      <c r="E27">
+        <v>280</v>
+      </c>
+      <c r="F27">
+        <v>0.54909090909090907</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -685,10 +2093,20 @@
         <v>280</v>
       </c>
       <c r="C28">
-        <v>0.5490909090909091</v>
+        <v>0.54909090909090907</v>
+      </c>
+      <c r="E28">
+        <v>290</v>
+      </c>
+      <c r="F28">
+        <v>0.55636363636363639</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:F28">
+    <sortCondition ref="E1:E28"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>